--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/FraPricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/FraPricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB661B4-B2D7-408D-AFE3-F1336E922181}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94D92B2-B60D-48DA-A5F2-4BD8EC8BD8E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="28515" windowHeight="12300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetInfo &amp; GetInstrumentInfo" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,15 @@
   <definedNames>
     <definedName name="CurveList">'GetInfo &amp; GetInstrumentInfo'!$A$8:$A$122</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1759,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1784,7 +1792,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>_xll.HLV5r3.Financial.Cache.GetCurveEngineVersionInfo()</f>
-        <v>Version: FpML.V5r3 v1.0 Built on : 27/04/2018, 8:03 AM</v>
+        <v>Version: FpML.V5r3 v1.0 Built on : 28/06/2019, 9:25 AM</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1804,7 +1812,7 @@
       </c>
       <c r="D4" s="40">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1889,7 +1897,7 @@
       </c>
       <c r="F15" s="1">
         <f t="array" aca="1" ref="F15:G57" ca="1">_xll.HLV5r3.Financial.Cache.GetDaysAndZeroRates(C9,D4,D3)</f>
-        <v>-2797</v>
+        <v>-3224</v>
       </c>
       <c r="G15" s="39">
         <f ca="1"/>
@@ -1898,7 +1906,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="C16" s="1" t="str">
         <v>AUD-Deposit-6M</v>
@@ -1908,16 +1916,16 @@
       </c>
       <c r="F16" s="1">
         <f ca="1"/>
-        <v>-2796</v>
+        <v>-3223</v>
       </c>
       <c r="G16" s="39">
         <f ca="1"/>
-        <v>-1.6093396185912212E-5</v>
+        <v>-1.3961262093964422E-5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
       </c>
       <c r="C17" s="1" t="str">
         <v>AUD-BasisSwap-1Y-6M</v>
@@ -1927,16 +1935,16 @@
       </c>
       <c r="F17" s="1">
         <f ca="1"/>
-        <v>-2615</v>
+        <v>-3042</v>
       </c>
       <c r="G17" s="39">
         <f ca="1"/>
-        <v>-3.3668267137390018E-3</v>
+        <v>-2.8944024092552034E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
       </c>
       <c r="C18" s="1" t="str">
         <v>AUD-BasisSwap-2Y-6M</v>
@@ -1946,16 +1954,16 @@
       </c>
       <c r="F18" s="1">
         <f ca="1"/>
-        <v>-2431</v>
+        <v>-2858</v>
       </c>
       <c r="G18" s="39">
         <f ca="1"/>
-        <v>-7.0334838828718382E-3</v>
+        <v>-5.9834313476914147E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
       </c>
       <c r="C19" s="1" t="str">
         <v>AUD-BasisSwap-3Y-6M</v>
@@ -1965,16 +1973,16 @@
       </c>
       <c r="F19" s="1">
         <f ca="1"/>
-        <v>-2065</v>
+        <v>-2492</v>
       </c>
       <c r="G19" s="39">
         <f ca="1"/>
-        <v>-1.6725644458732258E-2</v>
+        <v>-1.3864706689933559E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
       </c>
       <c r="C20" s="1" t="str">
         <v>AUD-BasisSwap-4Y-6M</v>
@@ -1984,16 +1992,16 @@
       </c>
       <c r="F20" s="1">
         <f ca="1"/>
-        <v>-1701</v>
+        <v>-2128</v>
       </c>
       <c r="G20" s="39">
         <f ca="1"/>
-        <v>-3.0707150759093693E-2</v>
+        <v>-2.4564481922053627E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
+        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
       </c>
       <c r="C21" s="1" t="str">
         <v>AUD-BasisSwap-5Y-6M</v>
@@ -2003,16 +2011,16 @@
       </c>
       <c r="F21" s="1">
         <f ca="1"/>
-        <v>-1337</v>
+        <v>-1764</v>
       </c>
       <c r="G21" s="39">
         <f ca="1"/>
-        <v>-5.3583539415949843E-2</v>
+        <v>-4.0679135550890866E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.JPY-USD</v>
+        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
       </c>
       <c r="C22" s="1" t="str">
         <v>AUD-BasisSwap-7Y-6M</v>
@@ -2022,16 +2030,16 @@
       </c>
       <c r="F22" s="1">
         <f ca="1"/>
-        <v>-970</v>
+        <v>-1397</v>
       </c>
       <c r="G22" s="39">
         <f ca="1"/>
-        <v>-9.3766775123929058E-2</v>
+        <v>-6.5342152425062139E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
+        <v>Market.QR_LIVE.FxCurve.JPY-USD</v>
       </c>
       <c r="C23" s="1" t="str">
         <v>AUD-BasisSwap-10Y-6M</v>
@@ -2041,16 +2049,16 @@
       </c>
       <c r="F23" s="1">
         <f ca="1"/>
-        <v>-239</v>
+        <v>-666</v>
       </c>
       <c r="G23" s="39">
         <f ca="1"/>
-        <v>-0.5179790555625492</v>
+        <v>-0.19419598221093448</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
+        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
       </c>
       <c r="C24" s="1" t="str">
         <v>AUD-BasisSwap-15Y-6M</v>
@@ -2060,16 +2068,16 @@
       </c>
       <c r="F24" s="1">
         <f ca="1"/>
-        <v>857</v>
+        <v>430</v>
       </c>
       <c r="G24" s="39">
         <f ca="1"/>
-        <v>0.23169942605513061</v>
+        <v>0.475061609599571</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
       </c>
       <c r="C25" s="1" t="str">
         <v>AUD-BasisSwap-20Y-6M</v>
@@ -2079,16 +2087,16 @@
       </c>
       <c r="F25" s="1">
         <f ca="1"/>
-        <v>2681</v>
+        <v>2254</v>
       </c>
       <c r="G25" s="39">
         <f ca="1"/>
-        <v>0.11161347022555468</v>
+        <v>0.13310590571098668</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
       </c>
       <c r="C26" s="1" t="str">
         <v>AUD-BasisSwap-25Y-6M</v>
@@ -2098,16 +2106,16 @@
       </c>
       <c r="F26" s="1">
         <f ca="1"/>
-        <v>4508</v>
+        <v>4081</v>
       </c>
       <c r="G26" s="39">
         <f ca="1"/>
-        <v>8.729960330365838E-2</v>
+        <v>9.6543263776966981E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
       </c>
       <c r="C27" s="1" t="str">
         <v>AUD-BasisSwap-30Y-6M</v>
@@ -2117,16 +2125,16 @@
       </c>
       <c r="F27" s="1">
         <f ca="1"/>
-        <v>6335</v>
+        <v>5908</v>
       </c>
       <c r="G27" s="39">
         <f ca="1"/>
-        <v>7.6710340159388046E-2</v>
+        <v>8.2311240718066614E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
       </c>
       <c r="C28" s="1" t="e">
         <v>#N/A</v>
@@ -2136,16 +2144,16 @@
       </c>
       <c r="F28" s="1">
         <f ca="1"/>
-        <v>8162</v>
+        <v>7735</v>
       </c>
       <c r="G28" s="39">
         <f ca="1"/>
-        <v>7.0607706929623149E-2</v>
+        <v>7.4541608812584315E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
       </c>
       <c r="C29" s="1" t="e">
         <v>#N/A</v>
@@ -2164,7 +2172,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-1M</v>
       </c>
       <c r="C30" s="1" t="e">
         <v>#N/A</v>
@@ -2183,7 +2191,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
       </c>
       <c r="C31" s="1" t="e">
         <v>#N/A</v>
@@ -2202,7 +2210,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-6M</v>
       </c>
       <c r="C32" s="1" t="e">
         <v>#N/A</v>
@@ -2221,7 +2229,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
       </c>
       <c r="C33" s="1" t="e">
         <v>#N/A</v>
@@ -2240,7 +2248,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-1M</v>
       </c>
       <c r="C34" s="1" t="e">
         <v>#N/A</v>
@@ -2259,7 +2267,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-3M</v>
       </c>
       <c r="C35" s="1" t="e">
         <v>#N/A</v>
@@ -2278,7 +2286,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-6M</v>
       </c>
       <c r="C36" s="1" t="e">
         <v>#N/A</v>
@@ -2297,7 +2305,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-1M</v>
       </c>
       <c r="C37" s="1" t="e">
         <v>#N/A</v>
@@ -2316,7 +2324,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-3M</v>
       </c>
       <c r="C38" s="1" t="e">
         <v>#N/A</v>
@@ -2335,7 +2343,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
       </c>
       <c r="C39" s="1" t="e">
         <v>#N/A</v>
@@ -2354,7 +2362,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
       </c>
       <c r="C40" s="1" t="e">
         <v>#N/A</v>
@@ -2373,7 +2381,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
       </c>
       <c r="C41" s="1" t="e">
         <v>#N/A</v>
@@ -2392,7 +2400,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
       </c>
       <c r="C42" s="1" t="e">
         <v>#N/A</v>
@@ -2411,7 +2419,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="7" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
       </c>
       <c r="C43" s="1" t="e">
         <v>#N/A</v>
@@ -2430,7 +2438,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
       </c>
       <c r="C44" s="1" t="e">
         <v>#N/A</v>
@@ -2449,7 +2457,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
       </c>
       <c r="C45" s="1" t="e">
         <v>#N/A</v>
@@ -2468,7 +2476,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="C46" s="1" t="e">
         <v>#N/A</v>
@@ -2487,7 +2495,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
       </c>
       <c r="C47" s="1" t="e">
         <v>#N/A</v>
@@ -2506,7 +2514,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
       </c>
       <c r="C48" s="1" t="e">
         <v>#N/A</v>
@@ -2525,7 +2533,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="C49" s="1" t="e">
         <v>#N/A</v>
@@ -2544,7 +2552,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="C50" s="1" t="e">
         <v>#N/A</v>
@@ -2563,7 +2571,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="C51" s="1" t="e">
         <v>#N/A</v>
@@ -2582,7 +2590,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
       </c>
       <c r="C52" s="1" t="e">
         <v>#N/A</v>
@@ -2601,7 +2609,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
       </c>
       <c r="C53" s="1" t="e">
         <v>#N/A</v>
@@ -2620,7 +2628,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
       </c>
       <c r="C54" s="1" t="e">
         <v>#N/A</v>
@@ -2639,7 +2647,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
       </c>
       <c r="C55" s="1" t="e">
         <v>#N/A</v>
@@ -2658,7 +2666,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
       </c>
       <c r="C56" s="1" t="e">
         <v>#N/A</v>
@@ -2677,7 +2685,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
       </c>
       <c r="F57" s="1" t="e">
         <f ca="1"/>
@@ -2690,247 +2698,247 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="7" t="str">
-        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="7" t="str">
-        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="7" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="7" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="7" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="7" t="str">
-        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="7" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -3165,7 +3173,7 @@
       </c>
       <c r="F3" s="29">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>77</v>
@@ -3241,7 +3249,7 @@
       <c r="P4" s="34"/>
       <c r="Q4" s="32">
         <f ca="1"/>
-        <v>0.22056529668273545</v>
+        <v>0.22056550835670413</v>
       </c>
       <c r="R4" s="32">
         <f ca="1"/>
@@ -3253,7 +3261,7 @@
       </c>
       <c r="T4" s="32">
         <f ca="1"/>
-        <v>1.8732942429414316E-6</v>
+        <v>1.8732960407333384E-6</v>
       </c>
       <c r="U4" s="27" t="s">
         <v>47</v>
@@ -3281,7 +3289,7 @@
       </c>
       <c r="F5" s="29">
         <f ca="1">F3</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>79</v>
@@ -3360,19 +3368,19 @@
       <c r="P6" s="34"/>
       <c r="Q6" s="32">
         <f ca="1"/>
-        <v>11.013607690228914</v>
+        <v>4.9736712699079613</v>
       </c>
       <c r="R6" s="32">
         <f ca="1"/>
-        <v>11.105686853240002</v>
+        <v>5.015243198830647</v>
       </c>
       <c r="S6" s="36">
         <f ca="1"/>
-        <v>4.8616347754832825E-2</v>
+        <v>4.8606179445862027E-2</v>
       </c>
       <c r="T6" s="32">
         <f ca="1"/>
-        <v>1.8406302113630049E-4</v>
+        <v>8.3121624252560904E-5</v>
       </c>
       <c r="X6" s="1" t="e">
         <f ca="1"/>
@@ -3397,7 +3405,7 @@
       </c>
       <c r="F7" s="29">
         <f ca="1">F5</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>40</v>
@@ -3473,26 +3481,26 @@
       <c r="P8" s="34"/>
       <c r="Q8" s="32">
         <f ca="1"/>
-        <v>-324.57557623973361</v>
+        <v>-292.02289452425526</v>
       </c>
       <c r="R8" s="32">
         <f ca="1"/>
-        <v>-328.62379461150203</v>
+        <v>-295.78420445420159</v>
       </c>
       <c r="S8" s="36">
         <f ca="1"/>
-        <v>4.6910888736337746E-2</v>
+        <v>4.6920278863330084E-2</v>
       </c>
       <c r="T8" s="32">
         <f ca="1"/>
-        <v>-8.0921579541052384E-3</v>
+        <v>-7.5205893819948908E-3</v>
       </c>
       <c r="U8" s="1" t="str">
         <f t="array" ref="U8:V21">_xll.HLV5r3.Financial.Cache.ViewTrade(O3)</f>
         <v>adjustedEffectiveDate</v>
       </c>
       <c r="V8" s="35">
-        <v>43248</v>
+        <v>43185</v>
       </c>
       <c r="X8" s="1" t="e">
         <f ca="1"/>
@@ -3517,7 +3525,7 @@
       </c>
       <c r="F9" s="29">
         <f ca="1">F7</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>80</v>
@@ -3599,7 +3607,7 @@
       <c r="P10" s="34"/>
       <c r="Q10" s="32">
         <f ca="1"/>
-        <v>-1620.0991269999126</v>
+        <v>-1620.1065410520982</v>
       </c>
       <c r="R10" s="32">
         <f ca="1"/>
@@ -3611,13 +3619,13 @@
       </c>
       <c r="T10" s="32">
         <f ca="1"/>
-        <v>-5.415125683022648E-2</v>
+        <v>-5.4151504642831222E-2</v>
       </c>
       <c r="U10" s="1" t="str">
         <v>paymentDate</v>
       </c>
       <c r="V10" s="35">
-        <v>43248</v>
+        <v>43185</v>
       </c>
       <c r="X10" s="1" t="e">
         <f ca="1"/>
@@ -3642,7 +3650,7 @@
       </c>
       <c r="F11" s="29">
         <f ca="1">F9</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>81</v>
@@ -3724,25 +3732,25 @@
       <c r="P12" s="34"/>
       <c r="Q12" s="32">
         <f ca="1"/>
-        <v>-5070.0827396028726</v>
+        <v>-5105.8059882852513</v>
       </c>
       <c r="R12" s="32">
         <f ca="1"/>
-        <v>-5177.0915193634182</v>
+        <v>-5213.5508315099023</v>
       </c>
       <c r="S12" s="36">
         <f ca="1"/>
-        <v>4.656317087770713E-2</v>
+        <v>4.6555572323862218E-2</v>
       </c>
       <c r="T12" s="32">
         <f ca="1"/>
-        <v>-0.21252674265917759</v>
+        <v>-0.21402418285507693</v>
       </c>
       <c r="U12" s="1" t="str">
         <v>adjustedTerminationDate</v>
       </c>
       <c r="V12" s="35">
-        <v>43339</v>
+        <v>43276</v>
       </c>
       <c r="X12" s="1" t="e">
         <f ca="1"/>
@@ -3767,7 +3775,7 @@
       </c>
       <c r="F13" s="29">
         <f ca="1">F11</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>76</v>
@@ -3849,7 +3857,7 @@
       <c r="P14" s="34"/>
       <c r="Q14" s="32">
         <f ca="1"/>
-        <v>-852.2802316897014</v>
+        <v>-852.28132064892316</v>
       </c>
       <c r="R14" s="32">
         <f ca="1"/>
@@ -3861,7 +3869,7 @@
       </c>
       <c r="T14" s="32">
         <f ca="1"/>
-        <v>-4.3197763839030082E-2</v>
+        <v>-4.3197819032919089E-2</v>
       </c>
       <c r="U14" s="1" t="str">
         <v>sellerPartyReference</v>
@@ -3888,7 +3896,7 @@
       </c>
       <c r="F15" s="29">
         <f ca="1">F13</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>82</v>
@@ -3953,7 +3961,7 @@
       </c>
       <c r="Y15" s="30">
         <f ca="1"/>
-        <v>0.22056529668273545</v>
+        <v>0.22056550835670413</v>
       </c>
     </row>
     <row r="16" spans="2:25">
@@ -3974,22 +3982,22 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="32">
         <f ca="1"/>
-        <v>-4810.5629979004161</v>
+        <v>-4761.0067644817937</v>
       </c>
       <c r="R16" s="32">
         <f ca="1"/>
-        <v>-4953.3778296290338</v>
+        <v>-4902.3450578256216</v>
       </c>
       <c r="S16" s="36">
         <f ca="1"/>
-        <v>4.7016477787133977E-2</v>
+        <v>4.7012705487417934E-2</v>
       </c>
       <c r="T16" s="32">
         <f ca="1"/>
-        <v>-0.28204395887151895</v>
+        <v>-0.27913847020736132</v>
       </c>
       <c r="U16" s="1" t="str">
-        <v>notionalamount</v>
+        <v>notionalAmount</v>
       </c>
       <c r="V16" s="1">
         <v>1000000</v>
@@ -4020,7 +4028,7 @@
       </c>
       <c r="F17" s="42">
         <f ca="1">F15</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>77</v>
@@ -4104,7 +4112,7 @@
       <c r="P18" s="34"/>
       <c r="Q18" s="32">
         <f ca="1"/>
-        <v>0.22056529668273545</v>
+        <v>0.22056550835670413</v>
       </c>
       <c r="R18" s="32">
         <f ca="1"/>
@@ -4116,7 +4124,7 @@
       </c>
       <c r="T18" s="32">
         <f ca="1"/>
-        <v>1.8732942429414316E-6</v>
+        <v>1.8732960407333384E-6</v>
       </c>
       <c r="U18" s="1" t="str">
         <v>party2</v>
@@ -4130,7 +4138,7 @@
       </c>
       <c r="Y18" s="1">
         <f ca="1"/>
-        <v>1.8732942429414316E-6</v>
+        <v>1.8732960407333384E-6</v>
       </c>
     </row>
     <row r="19" spans="2:25" ht="15">
@@ -4150,7 +4158,7 @@
       </c>
       <c r="F19" s="42">
         <f ca="1">F17</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>79</v>
@@ -4227,19 +4235,19 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="32">
         <f ca="1"/>
-        <v>11.013607690228914</v>
+        <v>4.9736712699079613</v>
       </c>
       <c r="R20" s="32">
         <f ca="1"/>
-        <v>11.105686853240002</v>
+        <v>5.015243198830647</v>
       </c>
       <c r="S20" s="36">
         <f ca="1"/>
-        <v>4.8616347754832825E-2</v>
+        <v>4.8606179445862027E-2</v>
       </c>
       <c r="T20" s="32">
         <f ca="1"/>
-        <v>1.8406302113630049E-4</v>
+        <v>8.3121624252560904E-5</v>
       </c>
       <c r="U20" s="1" t="e">
         <v>#N/A</v>
@@ -4271,7 +4279,7 @@
       </c>
       <c r="F21" s="42">
         <f ca="1">F19</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G21" s="42" t="s">
         <v>40</v>
@@ -4348,19 +4356,19 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="32">
         <f ca="1"/>
-        <v>-324.57557623973361</v>
+        <v>-292.02289452425526</v>
       </c>
       <c r="R22" s="32">
         <f ca="1"/>
-        <v>-328.62379461150203</v>
+        <v>-295.78420445420159</v>
       </c>
       <c r="S22" s="36">
         <f ca="1"/>
-        <v>4.6910888736337746E-2</v>
+        <v>4.6920278863330084E-2</v>
       </c>
       <c r="T22" s="32">
         <f ca="1"/>
-        <v>-8.0921579541052384E-3</v>
+        <v>-7.5205893819948908E-3</v>
       </c>
       <c r="Y22" s="30"/>
     </row>
@@ -4381,7 +4389,7 @@
       </c>
       <c r="F23" s="42">
         <f ca="1">F21</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G23" s="42" t="s">
         <v>80</v>
@@ -4452,7 +4460,7 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="32">
         <f ca="1"/>
-        <v>-1620.0991269999126</v>
+        <v>-1620.1065410520982</v>
       </c>
       <c r="R24" s="32">
         <f ca="1"/>
@@ -4464,7 +4472,7 @@
       </c>
       <c r="T24" s="32">
         <f ca="1"/>
-        <v>-5.415125683022648E-2</v>
+        <v>-5.4151504642831222E-2</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="15">
@@ -4484,7 +4492,7 @@
       </c>
       <c r="F25" s="42">
         <f ca="1">F23</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G25" s="42" t="s">
         <v>81</v>
@@ -4555,19 +4563,19 @@
       <c r="P26" s="34"/>
       <c r="Q26" s="32">
         <f ca="1"/>
-        <v>-5070.0827396028726</v>
+        <v>-5105.8059882852513</v>
       </c>
       <c r="R26" s="32">
         <f ca="1"/>
-        <v>-5177.0915193634182</v>
+        <v>-5213.5508315099023</v>
       </c>
       <c r="S26" s="36">
         <f ca="1"/>
-        <v>4.656317087770713E-2</v>
+        <v>4.6555572323862218E-2</v>
       </c>
       <c r="T26" s="32">
         <f ca="1"/>
-        <v>-0.21252674265917759</v>
+        <v>-0.21402418285507693</v>
       </c>
     </row>
     <row r="27" spans="2:25" ht="15">
@@ -4587,7 +4595,7 @@
       </c>
       <c r="F27" s="42">
         <f ca="1">F25</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>76</v>
@@ -4658,7 +4666,7 @@
       <c r="P28" s="34"/>
       <c r="Q28" s="32">
         <f ca="1"/>
-        <v>-852.2802316897014</v>
+        <v>-852.28132064892316</v>
       </c>
       <c r="R28" s="32">
         <f ca="1"/>
@@ -4670,7 +4678,7 @@
       </c>
       <c r="T28" s="32">
         <f ca="1"/>
-        <v>-4.3197763839030082E-2</v>
+        <v>-4.3197819032919089E-2</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="15">
@@ -4690,7 +4698,7 @@
       </c>
       <c r="F29" s="42">
         <f ca="1">F27</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G29" s="42" t="s">
         <v>82</v>
@@ -4761,19 +4769,19 @@
       <c r="P30" s="34"/>
       <c r="Q30" s="32">
         <f ca="1"/>
-        <v>-4810.5629979004161</v>
+        <v>-4761.0067644817937</v>
       </c>
       <c r="R30" s="32">
         <f ca="1"/>
-        <v>-4953.3778296290338</v>
+        <v>-4902.3450578256216</v>
       </c>
       <c r="S30" s="36">
         <f ca="1"/>
-        <v>4.7016477787133977E-2</v>
+        <v>4.7012705487417934E-2</v>
       </c>
       <c r="T30" s="32">
         <f ca="1"/>
-        <v>-0.28204395887151895</v>
+        <v>-0.27913847020736132</v>
       </c>
     </row>
     <row r="31" spans="2:25">
@@ -5251,7 +5259,7 @@
       </c>
       <c r="I2" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J2" s="1" t="str">
         <f ca="1"/>
@@ -5267,11 +5275,11 @@
       </c>
       <c r="M2" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N2" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O2" s="1">
         <f ca="1"/>
@@ -5318,7 +5326,7 @@
       </c>
       <c r="I3" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J3" s="1" t="str">
         <f ca="1"/>
@@ -5334,11 +5342,11 @@
       </c>
       <c r="M3" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N3" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O3" s="1">
         <f ca="1"/>
@@ -5378,7 +5386,7 @@
       </c>
       <c r="I4" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J4" s="1" t="str">
         <f ca="1"/>
@@ -5394,11 +5402,11 @@
       </c>
       <c r="M4" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N4" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O4" s="1">
         <f ca="1"/>
@@ -5434,7 +5442,7 @@
       </c>
       <c r="E5" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G5" s="1" t="str">
         <f ca="1"/>
@@ -5446,7 +5454,7 @@
       </c>
       <c r="I5" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J5" s="1" t="str">
         <f ca="1"/>
@@ -5462,11 +5470,11 @@
       </c>
       <c r="M5" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N5" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O5" s="1">
         <f ca="1"/>
@@ -5495,7 +5503,7 @@
       </c>
       <c r="B6" s="11">
         <f ca="1">B24</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="D6" s="1" t="str">
         <f ca="1"/>
@@ -5515,7 +5523,7 @@
       </c>
       <c r="I6" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J6" s="1" t="str">
         <f ca="1"/>
@@ -5531,11 +5539,11 @@
       </c>
       <c r="M6" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N6" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O6" s="1">
         <f ca="1"/>
@@ -5564,7 +5572,7 @@
       </c>
       <c r="B7" s="11">
         <f ca="1">B24+90</f>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="D7" s="1" t="str">
         <f ca="1"/>
@@ -5572,7 +5580,7 @@
       </c>
       <c r="E7" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G7" s="1" t="str">
         <f ca="1"/>
@@ -5584,7 +5592,7 @@
       </c>
       <c r="I7" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J7" s="1" t="str">
         <f ca="1"/>
@@ -5600,11 +5608,11 @@
       </c>
       <c r="M7" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N7" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O7" s="1">
         <f ca="1"/>
@@ -5633,7 +5641,7 @@
       </c>
       <c r="B8" s="11">
         <f ca="1">B7+91</f>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="D8" s="1" t="str">
         <f ca="1"/>
@@ -5653,7 +5661,7 @@
       </c>
       <c r="I8" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J8" s="1" t="str">
         <f ca="1"/>
@@ -5669,11 +5677,11 @@
       </c>
       <c r="M8" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N8" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O8" s="1">
         <f ca="1"/>
@@ -5702,7 +5710,7 @@
       </c>
       <c r="B9" s="11">
         <f ca="1">B7</f>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="D9" s="1" t="str">
         <f ca="1"/>
@@ -5710,7 +5718,7 @@
       </c>
       <c r="E9" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="G9" s="1" t="str">
         <f ca="1"/>
@@ -5722,7 +5730,7 @@
       </c>
       <c r="I9" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J9" s="1" t="str">
         <f ca="1"/>
@@ -5738,11 +5746,11 @@
       </c>
       <c r="M9" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N9" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O9" s="1">
         <f ca="1"/>
@@ -5790,7 +5798,7 @@
       </c>
       <c r="I10" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J10" s="1" t="str">
         <f ca="1"/>
@@ -5806,11 +5814,11 @@
       </c>
       <c r="M10" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N10" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O10" s="1">
         <f ca="1"/>
@@ -5858,7 +5866,7 @@
       </c>
       <c r="I11" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J11" s="1" t="str">
         <f ca="1"/>
@@ -5874,11 +5882,11 @@
       </c>
       <c r="M11" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N11" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O11" s="1">
         <f ca="1"/>
@@ -5926,7 +5934,7 @@
       </c>
       <c r="I12" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J12" s="1" t="str">
         <f ca="1"/>
@@ -5942,11 +5950,11 @@
       </c>
       <c r="M12" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N12" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O12" s="1">
         <f ca="1"/>
@@ -5978,7 +5986,7 @@
       </c>
       <c r="D13" s="1" t="str">
         <f ca="1"/>
-        <v>notionalamount</v>
+        <v>notionalAmount</v>
       </c>
       <c r="E13" s="1">
         <f ca="1"/>
@@ -5994,7 +6002,7 @@
       </c>
       <c r="I13" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J13" s="1" t="str">
         <f ca="1"/>
@@ -6010,11 +6018,11 @@
       </c>
       <c r="M13" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N13" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O13" s="1">
         <f ca="1"/>
@@ -6062,7 +6070,7 @@
       </c>
       <c r="I14" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J14" s="1" t="str">
         <f ca="1"/>
@@ -6078,11 +6086,11 @@
       </c>
       <c r="M14" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N14" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O14" s="1">
         <f ca="1"/>
@@ -6130,7 +6138,7 @@
       </c>
       <c r="I15" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J15" s="1" t="str">
         <f ca="1"/>
@@ -6146,11 +6154,11 @@
       </c>
       <c r="M15" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N15" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O15" s="1">
         <f ca="1"/>
@@ -6198,7 +6206,7 @@
       </c>
       <c r="I16" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J16" s="1" t="str">
         <f ca="1"/>
@@ -6214,11 +6222,11 @@
       </c>
       <c r="M16" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N16" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O16" s="1">
         <f ca="1"/>
@@ -6258,7 +6266,7 @@
       </c>
       <c r="I17" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J17" s="1" t="str">
         <f ca="1"/>
@@ -6274,11 +6282,11 @@
       </c>
       <c r="M17" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N17" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O17" s="1">
         <f ca="1"/>
@@ -6322,7 +6330,7 @@
       </c>
       <c r="I18" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J18" s="1" t="str">
         <f ca="1"/>
@@ -6338,11 +6346,11 @@
       </c>
       <c r="M18" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N18" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O18" s="1">
         <f ca="1"/>
@@ -6384,7 +6392,7 @@
       </c>
       <c r="I19" s="16">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J19" s="1" t="str">
         <f ca="1"/>
@@ -6400,11 +6408,11 @@
       </c>
       <c r="M19" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N19" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O19" s="1">
         <f ca="1"/>
@@ -6446,7 +6454,7 @@
       </c>
       <c r="I20" s="16">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J20" s="1" t="str">
         <f ca="1"/>
@@ -6462,11 +6470,11 @@
       </c>
       <c r="M20" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N20" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O20" s="1">
         <f ca="1"/>
@@ -6506,7 +6514,7 @@
       </c>
       <c r="I21" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J21" s="1" t="str">
         <f ca="1"/>
@@ -6522,11 +6530,11 @@
       </c>
       <c r="M21" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N21" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O21" s="1">
         <f ca="1"/>
@@ -6574,7 +6582,7 @@
       </c>
       <c r="I22" s="1">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="J22" s="1" t="str">
         <f ca="1"/>
@@ -6590,11 +6598,11 @@
       </c>
       <c r="M22" s="1">
         <f ca="1"/>
-        <v>0.98781502149710898</v>
+        <v>0.98781812838638505</v>
       </c>
       <c r="N22" s="1">
         <f ca="1"/>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="O22" s="1">
         <f ca="1"/>
@@ -6639,7 +6647,7 @@
       </c>
       <c r="B24" s="12">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="D24" s="1" t="str">
         <f ca="1"/>
@@ -6656,7 +6664,7 @@
       </c>
       <c r="B25" s="1" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(B26,B3,A41:A47,B19,B6,D2:E3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.fra.CBA0001.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.fra.CBA0001.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="D25" s="1" t="str">
         <f ca="1"/>
@@ -6664,7 +6672,7 @@
       </c>
       <c r="E25" s="21">
         <f ca="1"/>
-        <v>1.3780287647886946</v>
+        <v>1.3780287621420928</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15">
@@ -6681,7 +6689,7 @@
       </c>
       <c r="E26" s="21">
         <f ca="1"/>
-        <v>1.3627173327749273</v>
+        <v>1.3780287621420928</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -6698,7 +6706,7 @@
       </c>
       <c r="E27" s="21">
         <f ca="1"/>
-        <v>1.5311432013767091E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -6715,7 +6723,7 @@
       </c>
       <c r="E28" s="21">
         <f ca="1"/>
-        <v>-1.3780287634802624</v>
+        <v>-1.3780287621420928</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -6750,7 +6758,7 @@
       </c>
       <c r="B31" s="21">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetNPV(B26,B3,B19,B6,B30)</f>
-        <v>-49964.135073792408</v>
+        <v>-49964.292221671378</v>
       </c>
       <c r="D31" s="1" t="str">
         <f ca="1"/>
@@ -7654,7 +7662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -7724,7 +7732,7 @@
       </c>
       <c r="E5" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -7733,7 +7741,7 @@
       </c>
       <c r="B6" s="11">
         <f ca="1">B24</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="D6" s="1" t="str">
         <f ca="1"/>
@@ -7750,7 +7758,7 @@
       </c>
       <c r="B7" s="11">
         <f ca="1">B24+90</f>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="D7" s="1" t="str">
         <f ca="1"/>
@@ -7758,7 +7766,7 @@
       </c>
       <c r="E7" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -7767,7 +7775,7 @@
       </c>
       <c r="B8" s="11">
         <f ca="1">B7+91</f>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="D8" s="1" t="str">
         <f ca="1"/>
@@ -7784,7 +7792,7 @@
       </c>
       <c r="B9" s="11">
         <f ca="1">B7</f>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="D9" s="1" t="str">
         <f ca="1"/>
@@ -7792,7 +7800,7 @@
       </c>
       <c r="E9" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -7852,7 +7860,7 @@
       </c>
       <c r="D13" s="1" t="str">
         <f ca="1"/>
-        <v>notionalamount</v>
+        <v>notionalAmount</v>
       </c>
       <c r="E13" s="1">
         <f ca="1"/>
@@ -7936,15 +7944,15 @@
       </c>
       <c r="E19" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F19" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G19" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H19" s="1">
         <f ca="1"/>
@@ -7980,15 +7988,15 @@
       </c>
       <c r="E20" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F20" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G20" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H20" s="1">
         <f ca="1"/>
@@ -8024,15 +8032,15 @@
       </c>
       <c r="E21" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F21" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G21" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H21" s="1">
         <f ca="1"/>
@@ -8068,15 +8076,15 @@
       </c>
       <c r="E22" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F22" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G22" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H22" s="1">
         <f ca="1"/>
@@ -8112,15 +8120,15 @@
       </c>
       <c r="E23" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F23" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G23" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H23" s="1">
         <f ca="1"/>
@@ -8149,7 +8157,7 @@
       </c>
       <c r="B24" s="12">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="D24" s="1" t="str">
         <f ca="1"/>
@@ -8157,15 +8165,15 @@
       </c>
       <c r="E24" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F24" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G24" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H24" s="1">
         <f ca="1"/>
@@ -8194,7 +8202,7 @@
       </c>
       <c r="B25" s="1" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(B26,B3,A40:A46,B19,B6,D2:E3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.fra.CBA0002.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.fra.CBA0002.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="D25" s="1" t="str">
         <f ca="1"/>
@@ -8202,15 +8210,15 @@
       </c>
       <c r="E25" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F25" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G25" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H25" s="1">
         <f ca="1"/>
@@ -8247,15 +8255,15 @@
       </c>
       <c r="E26" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F26" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G26" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H26" s="1">
         <f ca="1"/>
@@ -8292,15 +8300,15 @@
       </c>
       <c r="E27" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F27" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G27" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H27" s="1">
         <f ca="1"/>
@@ -8337,15 +8345,15 @@
       </c>
       <c r="E28" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F28" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G28" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H28" s="1">
         <f ca="1"/>
@@ -8375,15 +8383,15 @@
       </c>
       <c r="E29" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F29" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G29" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H29" s="1">
         <f ca="1"/>
@@ -8419,15 +8427,15 @@
       </c>
       <c r="E30" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F30" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G30" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H30" s="1">
         <f ca="1"/>
@@ -8456,7 +8464,7 @@
       </c>
       <c r="B31" s="1">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetNPV(B26,B3,B19,B6,B30)</f>
-        <v>46918.567090151912</v>
+        <v>46918.714659068937</v>
       </c>
       <c r="D31" s="1" t="str">
         <f ca="1"/>
@@ -8464,15 +8472,15 @@
       </c>
       <c r="E31" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="F31" s="12">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="G31" s="12">
         <f ca="1"/>
-        <v>43398</v>
+        <v>43825</v>
       </c>
       <c r="H31" s="1">
         <f ca="1"/>
